--- a/opcodes.xlsx
+++ b/opcodes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\projects\c++ projects\Em6502\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F13C62AC-9961-4CFC-B2BA-B4B4E96DACD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B213ED-4F43-4B27-9A0F-C28BBE78562B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{CFCFD2AE-CA31-4D34-B94F-3E22D5E21622}"/>
   </bookViews>
@@ -1120,8 +1120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA181328-2D4D-4A34-BE58-32A4343E315A}">
   <dimension ref="A1:W141"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
